--- a/biology/Zoologie/Hyracoidiens/Hyracoidiens.xlsx
+++ b/biology/Zoologie/Hyracoidiens/Hyracoidiens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hyracoïdes (Hyracoidea) sont un ordre de mammifères placentaires du super-ordre des afrothériens. Il ne comprend qu'une famille à l'heure actuelle, les procaviidés, appelé communément les damans. Ils sont les plus proches cousins terrestres des éléphants.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantigrades avec une musculature des coussinets plantaires particulière qui leur permet de faire ventouse. Ils ont quatre doigts à l'avant (plantigrade) et trois à l'arrière (digitigrade), protégés par des sabots sauf un doigt sur les pattes arrière qui présente une griffe. Leur intestin présente un cæcum  développé (herbivore non-ruminant). Sur le dos, ils présentent une zone glandulaire, étroite et nue, entourée de poils érectiles dont ils se servent pour marquer leur territoire.
 </t>
@@ -542,7 +556,9 @@
           <t>Taxonomie et origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les damans sont des mammifères herbivores massifs, un peu plus gros qu'un lièvre mais sans queue et avec un museau pointu, la bouche étant pourvue de petites dents pointues très différentes de celles des rongeurs.
 La classification classique rattachait ce groupe aux périssodactyles qui était structuré ainsi :
@@ -551,7 +567,7 @@
 Rhinocerotidae
 Tapiridae
 Hyracoidea
-Des études génétiques récentes montrent qu'ils sont plus proches des dugongs et des éléphants que des rhinocéros. Ils forment avec eux (dugongs et éléphants), le taxon des Paenungulata[2].
+Des études génétiques récentes montrent qu'ils sont plus proches des dugongs et des éléphants que des rhinocéros. Ils forment avec eux (dugongs et éléphants), le taxon des Paenungulata.
  ──o Paenungulata
    ├──o Hyracoidea
    └──o Tethytheria
@@ -585,7 +601,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Procaviidé, Procaviidae
 genre Dendrohyrax Gray, 1868
